--- a/data/trans_bre/P12_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>8.000316274957676</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.292966518165775</v>
+        <v>8.292966518165779</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2708089605329753</v>
@@ -649,7 +649,7 @@
         <v>0.6010509178475151</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.470751879179783</v>
+        <v>0.4707518791797831</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.09861945046499984</v>
+        <v>-0.1144187998809201</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.87713985561879</v>
+        <v>2.024779422369746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.603548336529824</v>
+        <v>4.406739258593085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.591603437366327</v>
+        <v>4.382805385888782</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.009216631669226667</v>
+        <v>-0.01601455508913528</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1247723929395283</v>
+        <v>0.1281743740041648</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3141171861903586</v>
+        <v>0.2850651945004726</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2254376948165542</v>
+        <v>0.2084763224964037</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.748601275579079</v>
+        <v>4.906778499778222</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.124562494517139</v>
+        <v>8.498725860953945</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.66522636012702</v>
+        <v>11.84895537483696</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.20589568009679</v>
+        <v>12.04107405881847</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.61536615712734</v>
+        <v>0.6301337013146318</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6721497105581548</v>
+        <v>0.7061856385392704</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.011393683835576</v>
+        <v>1.010923914354853</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7991072369958961</v>
+        <v>0.7844147823880049</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.139787748796572</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.904068143907534</v>
+        <v>2.904068143907533</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9002544371882379</v>
@@ -749,7 +749,7 @@
         <v>0.5432913557624325</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3041302482487561</v>
+        <v>0.3041302482487559</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.605211059967217</v>
+        <v>1.420978212583085</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.551060606447332</v>
+        <v>2.640198582705044</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.367823893701852</v>
+        <v>1.234981185062644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.135864310303144</v>
+        <v>1.042170517443683</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3788403339330854</v>
+        <v>0.3403131739867672</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3557791951470899</v>
+        <v>0.3752598681108089</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.202337105875227</v>
+        <v>0.178225847156317</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1059729505413634</v>
+        <v>0.09404110249745533</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.473384861195187</v>
+        <v>4.596627607771218</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.49706967983176</v>
+        <v>6.432448075741473</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.785816787797699</v>
+        <v>4.661843059837215</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.790702912615045</v>
+        <v>4.713633012111915</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.621617550487148</v>
+        <v>1.609219971157673</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.15249128438787</v>
+        <v>1.149194041106717</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.937570644633673</v>
+        <v>0.9233066187662131</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5789612036753548</v>
+        <v>0.5274917142029921</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.9820399380343875</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5144208078740248</v>
+        <v>0.5144208078740233</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.520228326049947</v>
@@ -849,7 +849,7 @@
         <v>-0.1839828119850256</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.06443568957279568</v>
+        <v>0.06443568957279551</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.197554508200085</v>
+        <v>1.462178231211615</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4792422923682046</v>
+        <v>-0.3717437746277912</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.704724972359419</v>
+        <v>-3.70584694714334</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.513009005576</v>
+        <v>-2.180056681583895</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2366420768320515</v>
+        <v>0.301512176780328</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1556661056110775</v>
+        <v>-0.1453762440983513</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5436243452134929</v>
+        <v>-0.5507073424013224</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2604164885568613</v>
+        <v>-0.2407973034163897</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.857884968514504</v>
+        <v>6.979917489821657</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.143738560702476</v>
+        <v>6.245571040321614</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.384615100804177</v>
+        <v>1.425694276485832</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.586097435765467</v>
+        <v>3.599882277375107</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.967444442240605</v>
+        <v>3.836837147212725</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.713970728638656</v>
+        <v>2.600850741170481</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4063845180979312</v>
+        <v>0.3739060455328952</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5719157251690746</v>
+        <v>0.5573512920560485</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.308605933470615</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.077173223963672</v>
+        <v>4.077173223963671</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6731651055493908</v>
@@ -949,7 +949,7 @@
         <v>0.583028009143348</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3861653046061578</v>
+        <v>0.3861653046061576</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.156045011528925</v>
+        <v>2.192042717674228</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.74279796672228</v>
+        <v>3.653532159468443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.850564146592255</v>
+        <v>2.959040088613338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.527732256771433</v>
+        <v>2.546244688543929</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3753259384888453</v>
+        <v>0.3939408665181782</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4218647319468944</v>
+        <v>0.4246953183589887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3584580814660683</v>
+        <v>0.3622385037738742</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2244498321721512</v>
+        <v>0.2202384598836848</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.756395595915502</v>
+        <v>4.70644845388074</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.793419313763096</v>
+        <v>6.652657212447173</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.773371505805946</v>
+        <v>5.812038582793527</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.391054264508548</v>
+        <v>5.650356633362239</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.029987815014734</v>
+        <v>1.038189944545483</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9084685486316521</v>
+        <v>0.9187185858823101</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8632241945270255</v>
+        <v>0.8758841776480859</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5620773133126984</v>
+        <v>0.5725767269469907</v>
       </c>
     </row>
     <row r="16">
